--- a/backlog_3.xlsx
+++ b/backlog_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66884F2-D982-4F3A-826D-27A50A54EDBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39541DDD-6DFB-4B01-B84A-16C459190B2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -649,7 +649,7 @@
                   <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,6 +2269,9 @@
       <c r="G18" s="19">
         <v>2</v>
       </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
       <c r="T18" s="19"/>
     </row>
     <row r="19" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2300,6 +2303,9 @@
       <c r="G20" s="17">
         <v>1</v>
       </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
       <c r="T20" s="17"/>
     </row>
     <row r="21" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2321,6 +2327,9 @@
       <c r="G21" s="17">
         <v>1</v>
       </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
       <c r="T21" s="17"/>
     </row>
     <row r="22" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2342,6 +2351,9 @@
       <c r="G22" s="17">
         <v>1</v>
       </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
       <c r="T22" s="17"/>
     </row>
     <row r="23" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2361,6 +2373,9 @@
         <v>1</v>
       </c>
       <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
         <v>1</v>
       </c>
       <c r="T23" s="17"/>
@@ -2392,7 +2407,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H25" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>

--- a/backlog_3.xlsx
+++ b/backlog_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\inf-ogp1-20-21-team-practica-groep23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39541DDD-6DFB-4B01-B84A-16C459190B2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795BDDE-65F9-45D2-A090-90D2DAC6A8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -611,10 +611,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$I$4</c:f>
+              <c:f>Sheet1!$E$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -627,18 +627,15 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$25:$I$25</c:f>
+              <c:f>Sheet1!$E$25:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -649,9 +646,6 @@
                   <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1810,7 +1804,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="17"/>
     </row>
@@ -2376,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="17"/>
     </row>
@@ -2407,11 +2401,9 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H25" s="13">
-        <v>4</v>
-      </c>
-      <c r="I25" s="13">
         <v>0</v>
       </c>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D26" s="14"/>
